--- a/04_Results/Results_Zusammenfassung_FUBIC_neu.xlsx
+++ b/04_Results/Results_Zusammenfassung_FUBIC_neu.xlsx
@@ -454,7 +454,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -464,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1065,7 +1065,7 @@
       </c>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C34">
@@ -1089,19 +1089,19 @@
         <v>25</v>
       </c>
       <c r="C35">
-        <v>0.31817800000000002</v>
+        <v>0.39000899999999999</v>
       </c>
       <c r="D35">
-        <v>-296</v>
+        <v>-427</v>
       </c>
       <c r="E35">
-        <v>2190</v>
+        <v>2578</v>
       </c>
       <c r="H35">
-        <v>415</v>
+        <v>501</v>
       </c>
       <c r="I35">
-        <v>0.125613</v>
+        <v>0.130993</v>
       </c>
     </row>
     <row r="36" spans="1:12">

--- a/04_Results/Results_Zusammenfassung_FUBIC_neu.xlsx
+++ b/04_Results/Results_Zusammenfassung_FUBIC_neu.xlsx
@@ -464,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="O35" sqref="O34:O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -616,6 +616,18 @@
       <c r="I7">
         <v>7.7973000000000001E-2</v>
       </c>
+      <c r="K7">
+        <v>122119</v>
+      </c>
+      <c r="L7">
+        <v>365</v>
+      </c>
+      <c r="M7">
+        <v>61505</v>
+      </c>
+      <c r="N7">
+        <v>451</v>
+      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
@@ -763,7 +775,7 @@
         <v>9.3810000000000004E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -783,7 +795,7 @@
         <v>1.1389E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -803,7 +815,7 @@
         <v>1.6815E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -823,7 +835,7 @@
         <v>2.3392E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -843,7 +855,7 @@
         <v>9.2669999999999992E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -863,7 +875,7 @@
         <v>1.1485E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -883,7 +895,7 @@
         <v>1.7912999999999998E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -903,7 +915,7 @@
         <v>0.10079100000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:14">
       <c r="A25" s="1" t="s">
         <v>15</v>
       </c>
@@ -924,7 +936,7 @@
       </c>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:14">
       <c r="A26" s="3" t="s">
         <v>16</v>
       </c>
@@ -943,8 +955,20 @@
       <c r="I26">
         <v>6.9870000000000002E-3</v>
       </c>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="K26">
+        <v>118114</v>
+      </c>
+      <c r="L26">
+        <v>124</v>
+      </c>
+      <c r="M26">
+        <v>40566</v>
+      </c>
+      <c r="N26">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="1" t="s">
         <v>17</v>
       </c>
@@ -964,7 +988,7 @@
         <v>3.86E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:14">
       <c r="A28" s="1" t="s">
         <v>18</v>
       </c>
@@ -984,7 +1008,7 @@
         <v>2.598E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -1004,7 +1028,7 @@
         <v>5.6449999999999998E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:14">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -1024,7 +1048,7 @@
         <v>8.2220000000000001E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:14">
       <c r="A31" s="1" t="s">
         <v>21</v>
       </c>
@@ -1044,7 +1068,7 @@
         <v>1.2005E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:14">
       <c r="A32" s="3" t="s">
         <v>22</v>
       </c>
@@ -1064,7 +1088,7 @@
         <v>8.1270000000000005E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:14">
       <c r="A34" s="1" t="s">
         <v>24</v>
       </c>
@@ -1084,8 +1108,8 @@
         <v>0.146844</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
-      <c r="A35" t="s">
+    <row r="35" spans="1:14">
+      <c r="A35" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C35">
@@ -1103,8 +1127,20 @@
       <c r="I35">
         <v>0.130993</v>
       </c>
-    </row>
-    <row r="36" spans="1:12">
+      <c r="K35">
+        <v>122282</v>
+      </c>
+      <c r="L35">
+        <v>412</v>
+      </c>
+      <c r="M35">
+        <v>63612</v>
+      </c>
+      <c r="N35">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" t="s">
         <v>26</v>
       </c>
@@ -1124,7 +1160,7 @@
         <v>3.5714000000000003E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:14">
       <c r="A37" t="s">
         <v>27</v>
       </c>
@@ -1144,7 +1180,7 @@
         <v>1.1546000000000001E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:14">
       <c r="A38" t="s">
         <v>28</v>
       </c>
@@ -1164,7 +1200,7 @@
         <v>6.7531999999999995E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:14">
       <c r="A39" t="s">
         <v>29</v>
       </c>
@@ -1181,10 +1217,10 @@
         <v>4</v>
       </c>
       <c r="I39">
-        <v>3.9503000000000003E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
+        <v>4.0920999999999999E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" t="s">
         <v>30</v>
       </c>
@@ -1204,7 +1240,7 @@
         <v>1.0767000000000001E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:14">
       <c r="A41" t="s">
         <v>31</v>
       </c>
@@ -1224,7 +1260,7 @@
         <v>3.6430999999999998E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:14">
       <c r="A42" s="1" t="s">
         <v>32</v>
       </c>
